--- a/data/baidu.xlsx
+++ b/data/baidu.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
@@ -22,35 +20,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Python selenium</t>
+    <t>selenium 灰蓝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>selenium 灰蓝</t>
+    <t>Python selenium</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -77,15 +68,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -132,7 +130,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -164,9 +162,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -198,6 +197,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -373,62 +373,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>